--- a/biology/Botanique/Hédyote/Hédyote.xlsx
+++ b/biology/Botanique/Hédyote/Hédyote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9dyote</t>
+          <t>Hédyote</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedyotis
 Hedyotis est un genre de plantes à fleurs de la famille des Rubiaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9dyote</t>
+          <t>Hédyote</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedyotis albidopunctata
 Hedyotis biflora
@@ -522,7 +536,7 @@
 Hedyotis purpurea
 Hedyotis strigulosa
 Hedyotis verticillaris
-Selon ITIS      (29 juillet 2022)[1] :
+Selon ITIS      (29 juillet 2022) :
 Hedyotis foetida (G. Forst.) Sm.
 Hedyotis fruticulosa (Volkens) Merr.
 Hedyotis megalantha Merr.
@@ -530,7 +544,7 @@
 Hedyotis rigida Fosberg
 Hedyotis scabridifolia Kaneh.
 Liste d'espèces selon NCBI
-Selon NCBI  (29 juillet 2022)[2] :
+Selon NCBI  (29 juillet 2022) :
 Hedyotis acutangula
 Hedyotis albonerva
 Hedyotis alexanderae
@@ -653,7 +667,7 @@
 Hedyotis yunnanensis
 Hedyotis zhihaoana
 Liste d'espèces selon GBIF
-Selon GBIF       (1 juillet 2022)[3] :
+Selon GBIF       (1 juillet 2022) :
 Hedyotis acutangula Champ ex Benth.
 Hedyotis aimiriikensis Kaneh.
 Hedyotis alata J.Koenig ex Wall.
